--- a/assets/cursos/EP/docentes-EP.xlsx
+++ b/assets/cursos/EP/docentes-EP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="255">
   <si>
     <t>EP</t>
   </si>
@@ -493,6 +493,12 @@
     <t xml:space="preserve"> Introdução à Engenharia de Produção</t>
   </si>
   <si>
+    <t>11079086</t>
+  </si>
+  <si>
+    <t>Herlandí de Souza Andrade</t>
+  </si>
+  <si>
     <t>LOQ4203</t>
   </si>
   <si>
@@ -583,6 +589,12 @@
     <t xml:space="preserve"> Projeto da Fábrica</t>
   </si>
   <si>
+    <t>5701460</t>
+  </si>
+  <si>
+    <t>Antonio Iacono</t>
+  </si>
+  <si>
     <t>LOQ4217</t>
   </si>
   <si>
@@ -761,6 +773,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Oficina de Inovação</t>
+  </si>
+  <si>
+    <t>LOQ4269</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Planejamento e Gestão Estratégica</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1129,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1738,88 +1756,82 @@
         <v>158</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>7</v>
@@ -1830,94 +1842,94 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>7</v>
+        <v>191</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>8</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>7</v>
@@ -1928,38 +1940,38 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>7</v>
+        <v>191</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>8</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>7</v>
@@ -1970,80 +1982,80 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>7</v>
@@ -2054,38 +2066,38 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>7</v>
@@ -2096,18 +2108,18 @@
     </row>
     <row r="74" spans="1:4">
       <c r="C74" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D74" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>7</v>
@@ -2118,24 +2130,24 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>7</v>
@@ -2146,10 +2158,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>7</v>
@@ -2160,10 +2172,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>7</v>
@@ -2174,10 +2186,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>7</v>
@@ -2188,66 +2200,60 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="C82" t="s">
         <v>7</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>101</v>
@@ -2258,86 +2264,114 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
